--- a/Test Files/Test.xlsx
+++ b/Test Files/Test.xlsx
@@ -1,109 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmattison\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4BF89F-A13F-46A4-8EF3-8C58B2BBA978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="360" windowWidth="19185" windowHeight="10185" xr2:uid="{1381B61D-8293-4E0C-984F-7165462AE69F}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="360" yWindow="360" windowWidth="19185" windowHeight="10185" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
-  <si>
-    <t>Carrier</t>
-  </si>
-  <si>
-    <t>Num</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>BMOU2183772</t>
-  </si>
-  <si>
-    <t>BMOU2182267</t>
-  </si>
-  <si>
-    <t>CMAU0615186</t>
-  </si>
-  <si>
-    <t>TRHU6017442</t>
-  </si>
-  <si>
-    <t>CMAU1999430</t>
-  </si>
-  <si>
-    <t>TEMU1001882</t>
-  </si>
-  <si>
-    <t>JXLU7831639</t>
-  </si>
-  <si>
-    <t>DFSU6935165</t>
-  </si>
-  <si>
-    <t>CMAU7146898</t>
-  </si>
-  <si>
-    <t>FWRU0143517</t>
-  </si>
-  <si>
-    <t>TEMU2454266</t>
-  </si>
-  <si>
-    <t>CMAU1671749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMA </t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F1EB9C"/>
+        <bgColor rgb="00F1EB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0084C4E4"/>
+        <bgColor rgb="0084C4E4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008FB547"/>
+        <bgColor rgb="008FB547"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -118,9 +63,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -138,14 +92,74 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -445,165 +459,247 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B0A29FD-6349-4308-B727-E6C675A0A697}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col width="13.7109375" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="9.7109375" bestFit="1" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1">
-        <v>44562</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1">
-        <v>44563</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1">
-        <v>44564</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1">
-        <v>44565</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1">
-        <v>44566</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1">
-        <v>44567</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1">
-        <v>44568</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="1">
-        <v>44569</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1">
-        <v>44570</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="1">
-        <v>44571</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1">
-        <v>44572</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="1">
-        <v>44573</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Carrier</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Num</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CMA </t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CMAU1999430</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Date Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CMA </t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>TEMU1001882</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>Date Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CMA </t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>TRHU6017442</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>07/17/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CMA </t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>JXLU7831639</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>Date Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CMA </t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DFSU6935165</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>07/25/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CMA </t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>BMOU2183772</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>Date Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CMA </t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>BMOU2182267</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>arrived</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CMA </t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CMAU7146898</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>arrived</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CMA </t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>FWRU0143517</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>arrived</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CMA </t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>TEMU2454266</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>arrived</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CMA </t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CMAU0615186</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>arrived</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CMA </t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CMAU1671749</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>arrived</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B13">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" priority="3" dxfId="0"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Test Files/Test.xlsx
+++ b/Test Files/Test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="360" yWindow="360" windowWidth="19185" windowHeight="10185" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -24,8 +24,14 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -34,8 +40,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F1EB9C"/>
-        <bgColor rgb="00F1EB9C"/>
+        <fgColor rgb="008FB547"/>
+        <bgColor rgb="008FB547"/>
       </patternFill>
     </fill>
     <fill>
@@ -44,14 +50,8 @@
         <bgColor rgb="0084C4E4"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008FB547"/>
-        <bgColor rgb="008FB547"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -59,20 +59,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="16" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -464,16 +485,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.7109375" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="9.7109375" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="33.7109375" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -494,212 +516,118 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CMA </t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>CMAU1999430</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Date Error</t>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>CMA</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>GESU5876310</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>arrived</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>######6/26/2022#######</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CMA </t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>TEMU1001882</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>Date Error</t>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>CMA</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>CMAU8671334</t>
+        </is>
+      </c>
+      <c r="C3" s="6" t="inlineStr">
+        <is>
+          <t>06/25/2022</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>############6/25/2022##########</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CMA </t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>TRHU6017442</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>07/17/2022</t>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>CMA</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>CMAU5726794</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="inlineStr">
+        <is>
+          <t>07/01/2022</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>###########07/01/2022##########</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CMA </t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>JXLU7831639</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>Date Error</t>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>CMA</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>CMAU5875885</t>
+        </is>
+      </c>
+      <c r="C5" s="6" t="inlineStr">
+        <is>
+          <t>07/01/2022</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>#########07/01/2022############</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CMA </t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>DFSU6935165</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>07/25/2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CMA </t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>BMOU2183772</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>Date Error</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CMA </t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>BMOU2182267</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>arrived</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CMA </t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>CMAU7146898</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>arrived</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CMA </t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>FWRU0143517</t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="inlineStr">
-        <is>
-          <t>arrived</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CMA </t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>TEMU2454266</t>
-        </is>
-      </c>
-      <c r="C11" s="4" t="inlineStr">
-        <is>
-          <t>arrived</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CMA </t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>CMAU0615186</t>
-        </is>
-      </c>
-      <c r="C12" s="4" t="inlineStr">
-        <is>
-          <t>arrived</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CMA </t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>CMAU1671749</t>
-        </is>
-      </c>
-      <c r="C13" s="4" t="inlineStr">
-        <is>
-          <t>arrived</t>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>CMA</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>TCKU6228690</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="inlineStr">
+        <is>
+          <t>07/06/2022</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>############07/06/2022##########</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B13">
-    <cfRule type="duplicateValues" priority="3" dxfId="0"/>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="duplicateValues" priority="4" dxfId="0"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
